--- a/Mifos Automation Excels/Client/2118-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2118-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -230,6 +235,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -277,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,9 +318,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +370,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,10 +723,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -701,12 +743,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
@@ -746,17 +789,18 @@
       <c r="M1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="10">
@@ -781,9 +825,10 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -821,17 +866,18 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
         <v>887.72</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
       <c r="P3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -867,17 +913,18 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -913,17 +960,18 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
+      <c r="N5" s="3"/>
       <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -959,17 +1007,18 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
+      <c r="N6" s="3"/>
       <c r="O6" s="3">
         <v>0</v>
       </c>
       <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1005,17 +1054,18 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="3">
         <v>0</v>
       </c>
       <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1051,13 +1101,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
+      <c r="N8" s="3"/>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>745.03</v>
       </c>
     </row>
@@ -1070,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2118-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2118-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -123,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -184,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -204,17 +199,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,26 +304,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,23 +339,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -711,11 +663,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="12"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -725,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -750,60 +697,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>42005</v>
       </c>
       <c r="D2" s="3"/>
@@ -835,13 +782,13 @@
       <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>42036</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>42050</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="3">
         <v>836.76</v>
       </c>
@@ -884,7 +831,7 @@
       <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>42064</v>
       </c>
       <c r="D4" s="3"/>
@@ -931,7 +878,7 @@
       <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>42095</v>
       </c>
       <c r="D5" s="3"/>
@@ -978,7 +925,7 @@
       <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>42125</v>
       </c>
       <c r="D6" s="3"/>
@@ -1025,7 +972,7 @@
       <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>42156</v>
       </c>
       <c r="D7" s="3"/>
@@ -1072,7 +1019,7 @@
       <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>42186</v>
       </c>
       <c r="D8" s="3"/>
@@ -1135,10 +1082,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1173,7 +1120,7 @@
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>42050</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1197,8 +1144,8 @@
       <c r="J2" s="7">
         <v>4163.24</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1207,7 +1154,7 @@
       <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>42005</v>
       </c>
       <c r="D3" s="3" t="s">
